--- a/qiyeqianzhan/huizong.xlsx
+++ b/qiyeqianzhan/huizong.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="612" yWindow="492" windowWidth="17952" windowHeight="6708"/>
-  </bookViews>
-  <sheets>
-    <sheet name="pay_company" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="pay_company" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t>卡友支付服务有限公司</t>
   </si>
@@ -46,13 +46,22 @@
     <t>10,000(万人民币)</t>
   </si>
   <si>
+    <t>2003-01-30 至 2023-01-29</t>
+  </si>
+  <si>
     <t>嘉定区市场监管局</t>
   </si>
   <si>
     <t>嘉定区</t>
   </si>
   <si>
-    <t>2003-01-30 至 2023-01-29</t>
+    <t>金融外包:移动支付商业模式</t>
+  </si>
+  <si>
+    <t>金融（银行）技术暨设备:物联网</t>
+  </si>
+  <si>
+    <t>计算器及货币专用设备制造:软件开发</t>
   </si>
   <si>
     <t>上海市嘉定工业区叶城路925号A区4幢211室</t>
@@ -85,6 +94,9 @@
     <t>5,779.5(万元)</t>
   </si>
   <si>
+    <t>2005-05-16 至 永续经营</t>
+  </si>
+  <si>
     <t>西城分局</t>
   </si>
   <si>
@@ -94,6 +106,15 @@
     <t>2005-05-16 至 2079-06-05</t>
   </si>
   <si>
+    <t>手机浏览器:计算机仿真</t>
+  </si>
+  <si>
+    <t>移动生活应用:移动游戏</t>
+  </si>
+  <si>
+    <t>软件开发:信息系统集成服务</t>
+  </si>
+  <si>
     <t>北京市西城区新街口外大街28号C座619号(德胜园区)</t>
   </si>
   <si>
@@ -118,12 +139,24 @@
     <t>36,000(万人民币)</t>
   </si>
   <si>
+    <t>2005-01-06 至 永续经营</t>
+  </si>
+  <si>
     <t>北京市工商行政管理局海淀分局</t>
   </si>
   <si>
     <t>2005-01-06 至 --</t>
   </si>
   <si>
+    <t>第三方支付:移动支付商业模式</t>
+  </si>
+  <si>
+    <t>网络文化:物联网</t>
+  </si>
+  <si>
+    <t>电信:信息技术咨询服务</t>
+  </si>
+  <si>
     <t>北京市海淀区丹棱街6号1幢6层706</t>
   </si>
   <si>
@@ -148,6 +181,9 @@
     <t>16,100(万元)</t>
   </si>
   <si>
+    <t>2007-03-22 至 永续经营</t>
+  </si>
+  <si>
     <t>广东省深圳市质量技术监督局</t>
   </si>
   <si>
@@ -157,6 +193,15 @@
     <t>2007-03-22 至 2017-03-22</t>
   </si>
   <si>
+    <t>金融电子支付设备:第三方支付</t>
+  </si>
+  <si>
+    <t>机及相关设备:金融</t>
+  </si>
+  <si>
+    <t>计算器及货币专用设备制造:电信</t>
+  </si>
+  <si>
     <t>深圳市福田区中心区益田路与福华路交汇处卓越时代广场第48层08单元</t>
   </si>
   <si>
@@ -181,12 +226,24 @@
     <t>25,580(万元人民币)</t>
   </si>
   <si>
+    <t>2001-04-05 至 永续经营</t>
+  </si>
+  <si>
     <t>海淀分局</t>
   </si>
   <si>
     <t>2001-04-05 至 --</t>
   </si>
   <si>
+    <t>移动支付商业模式:信息安全</t>
+  </si>
+  <si>
+    <t>金融（银行）技术暨设备:防信息化技术与装备</t>
+  </si>
+  <si>
+    <t>信息系统集成服务:农业技术推广服务</t>
+  </si>
+  <si>
     <t>北京市海淀区人民大学北路33号院1号楼大行基业大厦17层北侧</t>
   </si>
   <si>
@@ -208,6 +265,9 @@
     <t>2006-12-07</t>
   </si>
   <si>
+    <t>2006-12-07 至 永续经营</t>
+  </si>
+  <si>
     <t>昆明市工商行政管理局</t>
   </si>
   <si>
@@ -217,6 +277,15 @@
     <t>2006-12-07 至 2016-12-06</t>
   </si>
   <si>
+    <t>预付卡:第三方支付</t>
+  </si>
+  <si>
+    <t>电子商务:创业项目投资暨连锁加盟</t>
+  </si>
+  <si>
+    <t>市场调查:其他未列明商务服务业</t>
+  </si>
+  <si>
     <t>云南省昆明经开区云大西路新广丰批发市场C区3栋928号综合楼</t>
   </si>
   <si>
@@ -241,9 +310,21 @@
     <t>6,000(万元)</t>
   </si>
   <si>
+    <t>2012-04-28 至 永续经营</t>
+  </si>
+  <si>
     <t>2012-04-28 至 2017-12-24</t>
   </si>
   <si>
+    <t>移动支付:第三方支付</t>
+  </si>
+  <si>
+    <t>金融（银行）技术暨设备:信息通信</t>
+  </si>
+  <si>
+    <t>电信:通信终端设备制造</t>
+  </si>
+  <si>
     <t>深圳市南山区西丽大学城学苑大道1068号西侧国家超级计算深圳中心（深圳云计算中心）13层</t>
   </si>
   <si>
@@ -268,6 +349,9 @@
     <t>30,000(万人民币)</t>
   </si>
   <si>
+    <t>2011-02-28 至 2061-02-27</t>
+  </si>
+  <si>
     <t>天津市滨海新区市场和质量监督管理局</t>
   </si>
   <si>
@@ -277,6 +361,15 @@
     <t>2011-02-28 至 --</t>
   </si>
   <si>
+    <t>移动支付商业模式:金融外包</t>
+  </si>
+  <si>
+    <t>数码互动娱乐产品及技术应用:智慧教育</t>
+  </si>
+  <si>
+    <t>互联网信息服务:数据处理和存储服务</t>
+  </si>
+  <si>
     <t>天津开发区盛达街9号701室</t>
   </si>
   <si>
@@ -304,12 +397,24 @@
     <t>10,000(万元)</t>
   </si>
   <si>
+    <t>2009-11-05 至 2019-11-05</t>
+  </si>
+  <si>
     <t>深圳市市场监督管理局</t>
   </si>
   <si>
     <t>2009-11-05 至 --</t>
   </si>
   <si>
+    <t>福利彩票:互联网彩票业</t>
+  </si>
+  <si>
+    <t>数码互动娱乐产品及技术应用:软件</t>
+  </si>
+  <si>
+    <t>电信:互联网信息服务</t>
+  </si>
+  <si>
     <t>深圳市南山区蛇口南海大道1079号花园城数码大厦A座402#</t>
   </si>
   <si>
@@ -334,12 +439,21 @@
     <t>2003-07-02</t>
   </si>
   <si>
+    <t>2003-07-02 至 2023-07-01</t>
+  </si>
+  <si>
     <t>北京市工商行政管理局石景山分局</t>
   </si>
   <si>
     <t>2003-07-02 至 --</t>
   </si>
   <si>
+    <t>金融外包:第三方支付</t>
+  </si>
+  <si>
+    <t>数码互动娱乐产品及技术应用:网络文化</t>
+  </si>
+  <si>
     <t>北京市石景山区八大处高科技园区西井路3号3号楼558房间</t>
   </si>
   <si>
@@ -361,9 +475,21 @@
     <t>2014-07-16</t>
   </si>
   <si>
+    <t>2014-07-16 至 永续经营</t>
+  </si>
+  <si>
     <t>2014-07-16 至 2018-07-17</t>
   </si>
   <si>
+    <t>电子商务:移动支付商业模式:电子商务</t>
+  </si>
+  <si>
+    <t>电子商务:自主创业项目:电子商务</t>
+  </si>
+  <si>
+    <t>信息技术咨询服务:电信</t>
+  </si>
+  <si>
     <t>深圳市前海深港合作区前湾一路1号A栋201室（入驻深圳市前海商务秘书有限公司）经营场所：深圳市宝安区新安街道海秀路万骏经贸大厦16楼</t>
   </si>
   <si>
@@ -388,9 +514,18 @@
     <t>18,500(万元)</t>
   </si>
   <si>
+    <t>2011-07-20 至 2031-07-20</t>
+  </si>
+  <si>
     <t>2011-07-20 至 --</t>
   </si>
   <si>
+    <t>物联网:软件</t>
+  </si>
+  <si>
+    <t>计算器及货币专用设备制造:通信终端设备制造</t>
+  </si>
+  <si>
     <t>深圳市南山区粤海街道深圳市软件产业基地第5栋裙楼505室</t>
   </si>
   <si>
@@ -418,6 +553,9 @@
     <t>146,000(万人民币)</t>
   </si>
   <si>
+    <t>2008-10-16 至 永续经营</t>
+  </si>
+  <si>
     <t>上海市工商局</t>
   </si>
   <si>
@@ -427,6 +565,12 @@
     <t>2008-10-16 至 2016-05-10</t>
   </si>
   <si>
+    <t>电子商务:金融（银行）技术暨设备</t>
+  </si>
+  <si>
+    <t>电信:信息系统集成服务</t>
+  </si>
+  <si>
     <t>中国（上海）自由贸易试验区陆家嘴西路99号万向大厦12楼</t>
   </si>
   <si>
@@ -454,12 +598,24 @@
     <t>63,000(万人民币)</t>
   </si>
   <si>
+    <t>2009-08-31 至 2039-08-30</t>
+  </si>
+  <si>
     <t>自贸区市场监督管理局</t>
   </si>
   <si>
     <t>2009-08-31 至 2017-09-29</t>
   </si>
   <si>
+    <t>预付卡:移动支付商业模式</t>
+  </si>
+  <si>
+    <t>金融（银行）技术暨设备:创业项目投资暨连锁加盟</t>
+  </si>
+  <si>
+    <t>科技中介服务:信息技术咨询服务</t>
+  </si>
+  <si>
     <t>中国（上海）自由贸易试验区春晓路289号张江大厦1801室08单元</t>
   </si>
   <si>
@@ -487,6 +643,9 @@
     <t>100(万人民币元)</t>
   </si>
   <si>
+    <t>2008-10-13 至 永续经营</t>
+  </si>
+  <si>
     <t>陕西省工商行政管理局</t>
   </si>
   <si>
@@ -496,6 +655,15 @@
     <t>2008-10-13 至 2012-11-05</t>
   </si>
   <si>
+    <t>广告:户外广告</t>
+  </si>
+  <si>
+    <t>营销和广告创新技术:品牌授权</t>
+  </si>
+  <si>
+    <t>广告业:其他未列明商务服务业</t>
+  </si>
+  <si>
     <t>宝鸡市陈仓区虢镇大王村114号</t>
   </si>
   <si>
@@ -523,6 +691,9 @@
     <t>10,000(万)</t>
   </si>
   <si>
+    <t>1995-04-22 至 永续经营</t>
+  </si>
+  <si>
     <t>广州市天河区工商行政管理局</t>
   </si>
   <si>
@@ -532,6 +703,12 @@
     <t>1995-04-22 至 --</t>
   </si>
   <si>
+    <t>服务外包:金融外包</t>
+  </si>
+  <si>
+    <t>软件:电子商务</t>
+  </si>
+  <si>
     <t>广州市天河区天河北路689号804-813房（仅限办公用途）</t>
   </si>
   <si>
@@ -559,6 +736,9 @@
     <t>10,500(万元人民币)</t>
   </si>
   <si>
+    <t>2007-09-10 至 2027-09-09</t>
+  </si>
+  <si>
     <t>杭州市高新区（滨江）工商行政管理局</t>
   </si>
   <si>
@@ -568,6 +748,15 @@
     <t>2007-09-10 至 2017-07-12</t>
   </si>
   <si>
+    <t>移动支付商业模式:第三方支付</t>
+  </si>
+  <si>
+    <t>软件:金融（银行）技术暨设备</t>
+  </si>
+  <si>
+    <t>电信:其他专业咨询</t>
+  </si>
+  <si>
     <t>杭州市西湖区西斗门路3号天堂软件园D幢2层A座</t>
   </si>
   <si>
@@ -592,6 +781,9 @@
     <t>15,000(万人民币)</t>
   </si>
   <si>
+    <t>2011-06-23 至 2031-06-22</t>
+  </si>
+  <si>
     <t>义乌市工商行政管理局</t>
   </si>
   <si>
@@ -601,6 +793,9 @@
     <t>2011-06-23 至 2017-10-24</t>
   </si>
   <si>
+    <t>数据处理和存储服务:信息系统集成服务</t>
+  </si>
+  <si>
     <t>浙江省义乌市福田路105号海洋商务楼写字楼12楼1201-1207室</t>
   </si>
   <si>
@@ -625,12 +820,24 @@
     <t>31,000(万元人民币)</t>
   </si>
   <si>
+    <t>2005-10-13 至 永续经营</t>
+  </si>
+  <si>
     <t>北京市工商行政管理局</t>
   </si>
   <si>
     <t>2005-10-13 至 --</t>
   </si>
   <si>
+    <t>特许经营:特许连锁</t>
+  </si>
+  <si>
+    <t>食品和饮料:连锁加盟</t>
+  </si>
+  <si>
+    <t>超级市场零售:食品、饮料及烟草制品批发</t>
+  </si>
+  <si>
     <t>北京市平谷区平谷镇乐园西小区7号316室</t>
   </si>
   <si>
@@ -655,6 +862,9 @@
     <t>1,000(万人民币)</t>
   </si>
   <si>
+    <t>2014-10-17 至 永续经营</t>
+  </si>
+  <si>
     <t>福州市市场监督管理局</t>
   </si>
   <si>
@@ -664,6 +874,15 @@
     <t>2014-10-17 至 2019-06-23</t>
   </si>
   <si>
+    <t>信息安全:电子政务</t>
+  </si>
+  <si>
+    <t>软件:信息通信</t>
+  </si>
+  <si>
+    <t>通信终端设备制造:通信系统设备制造</t>
+  </si>
+  <si>
     <t>福建省福州市鼓楼区工业路523号福州大学内的机械厂福大怡山文化创意园项目5号楼1-3层106号商铺</t>
   </si>
   <si>
@@ -685,9 +904,18 @@
     <t>30,000(万元人民币)</t>
   </si>
   <si>
+    <t>2010-12-01 至 2030-11-30</t>
+  </si>
+  <si>
     <t>2010-12-01 至 2017-08-13</t>
   </si>
   <si>
+    <t>电子商务:服务贸易</t>
+  </si>
+  <si>
+    <t>互联网信息服务:信息技术咨询服务</t>
+  </si>
+  <si>
     <t>北京市朝阳区建国路77号2801B</t>
   </si>
   <si>
@@ -697,82 +925,43 @@
     <t>北京钱袋宝支付技术有限公司</t>
   </si>
   <si>
-    <t>91110108682874345L</t>
-  </si>
-  <si>
-    <t>110108011475462</t>
-  </si>
-  <si>
-    <t>682874345</t>
-  </si>
-  <si>
-    <t>2008-11-25</t>
-  </si>
-  <si>
-    <t>10,400(万人民币)</t>
-  </si>
-  <si>
-    <t>2008-11-25 至 --</t>
-  </si>
-  <si>
-    <t>北京市海淀区太月园1号楼五层</t>
-  </si>
-  <si>
-    <t>互联网信息服务业务（除新闻、出版、教育、医疗保健、药品、医疗器械和BBS以外的内容）；经国家密码管理机构批准的商用密码产品的开发、生产；第二类增值电信业务中的呼叫中心业务和信息服务业务（不含固定网电话信息服务和互联网信息服务）；互联网支付(全国)、移动电话支付（全国）、银行卡收单（全国）；销售经国家密码管理局审批并通过指定检测机构产品质量检测的商用密码产品；技术开发；销售计算机、软件及辅助设备；软件服务。（企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）</t>
-  </si>
-  <si>
-    <t>义士支付科技有限公司</t>
-  </si>
-  <si>
-    <t>9144030031203957XL</t>
-  </si>
-  <si>
-    <t>440301111165898</t>
-  </si>
-  <si>
-    <t>31203957X</t>
-  </si>
-  <si>
-    <t>2014-08-26</t>
-  </si>
-  <si>
-    <t>5,000(万元)</t>
-  </si>
-  <si>
-    <t>2014-08-26 至 2079-06-05</t>
-  </si>
-  <si>
-    <t>深圳市前海深港合作区前湾一路1号A栋201室（入驻深圳市前海商务秘书有限公司）</t>
-  </si>
-  <si>
-    <t>一般经营项目：计算机软硬件、数据库、智能卡、数据通信设备、终端机设备及相关软件的技术开发；互联网技术开发与技术咨询；市场营销策划；在网上从事商务活动；国内贸易（不含专营、专控、专卖商品）；经营进出口业务。许可经营项目：</t>
-  </si>
-  <si>
     <t>深圳市小猫支付技术有限公司</t>
   </si>
   <si>
-    <t>91440300085746521U</t>
-  </si>
-  <si>
-    <t>440301108439930</t>
-  </si>
-  <si>
-    <t>085746521</t>
-  </si>
-  <si>
-    <t>2013-12-04</t>
-  </si>
-  <si>
-    <t>50(万元)</t>
-  </si>
-  <si>
-    <t>2013-12-04 至 2018-11-11</t>
-  </si>
-  <si>
-    <t>深圳市南山区深圳软件产业基地5栋E座4楼</t>
-  </si>
-  <si>
-    <t>一般经营项目：智能停车场管理系统的研发、销售、设计、技术维护；支付设备、终端设备的技术开发和销售（以上不含限制项目）。许可经营项目：</t>
+    <t>北京来金投资基金管理有限公司</t>
+  </si>
+  <si>
+    <t>91110108318221874R</t>
+  </si>
+  <si>
+    <t>110108018751079</t>
+  </si>
+  <si>
+    <t>318221874</t>
+  </si>
+  <si>
+    <t>2015-03-16</t>
+  </si>
+  <si>
+    <t>5,000(万元人民币)</t>
+  </si>
+  <si>
+    <t>2015-03-16 至 2035-03-15</t>
+  </si>
+  <si>
+    <t>众创空间发展模式:P2P网贷</t>
+  </si>
+  <si>
+    <t>投资理财:互联网金融</t>
+  </si>
+  <si>
+    <t>社会经济咨询:其他专业咨询</t>
+  </si>
+  <si>
+    <t>北京市海淀区知春路113号1幢10层1106</t>
+  </si>
+  <si>
+    <t>非证券业务的投资管理、咨询；（不得从事下列业务：1、发放贷款；2、公开交易证券类投资或金融衍生品交易；3、以公开方式募集资金；4、对除被投资企业以外的企业提供担保）；技术开发、技术服务、技术转让、技术咨询；投资咨询；投资管理；资产管理；经济贸易咨询；企业管理咨询；设计、制作、代理、发布广告；承办展览展示活动；软件开发；基础软件服务；应用软件服务。（1、不得以公开方式募集资金；2、不得公开交易证券类产品和金融衍生品；3、不得发放贷款；3、不得向所投资企业以外的其他企业提供担保；5、不得向投资者承诺投资本金不受损失或者承诺最低收益。企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）</t>
   </si>
   <si>
     <t>哈尔滨华通支付网络科技有限公司</t>
@@ -790,6 +979,9 @@
     <t>2005-10-24</t>
   </si>
   <si>
+    <t>2005-10-24 至 永续经营</t>
+  </si>
+  <si>
     <t>哈尔滨市市场监督管理局</t>
   </si>
   <si>
@@ -799,126 +991,24 @@
     <t>2005-10-24 至 2016-08-21</t>
   </si>
   <si>
+    <t>创业加盟:创业项目投资暨连锁加盟</t>
+  </si>
+  <si>
+    <t>技术推广服务:科技中介服务</t>
+  </si>
+  <si>
     <t>哈尔滨市南岗区东大直街329号</t>
   </si>
   <si>
     <t>研究开发软件、技术转让、通过服务卡体系为企事业单位提供管理策划及咨询服务（法律、行政法规及国务院决定的前置审批项目除外）。</t>
   </si>
   <si>
-    <t>北京来金投资基金管理有限公司</t>
-  </si>
-  <si>
-    <t>91110108318221874R</t>
-  </si>
-  <si>
-    <t>110108018751079</t>
-  </si>
-  <si>
-    <t>318221874</t>
-  </si>
-  <si>
-    <t>2015-03-16</t>
-  </si>
-  <si>
-    <t>5,000(万元人民币)</t>
-  </si>
-  <si>
-    <t>2015-03-16 至 2035-03-15</t>
-  </si>
-  <si>
-    <t>北京市海淀区知春路113号1幢10层1106</t>
-  </si>
-  <si>
-    <t>非证券业务的投资管理、咨询；（不得从事下列业务：1、发放贷款；2、公开交易证券类投资或金融衍生品交易；3、以公开方式募集资金；4、对除被投资企业以外的企业提供担保）；技术开发、技术服务、技术转让、技术咨询；投资咨询；投资管理；资产管理；经济贸易咨询；企业管理咨询；设计、制作、代理、发布广告；承办展览展示活动；软件开发；基础软件服务；应用软件服务。（1、不得以公开方式募集资金；2、不得公开交易证券类产品和金融衍生品；3、不得发放贷款；3、不得向所投资企业以外的其他企业提供担保；5、不得向投资者承诺投资本金不受损失或者承诺最低收益。企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）</t>
-  </si>
-  <si>
     <t>北京和融通支付科技有限公司</t>
   </si>
   <si>
-    <t>110108011889980</t>
-  </si>
-  <si>
-    <t>689236506</t>
-  </si>
-  <si>
-    <t>2009-05-04</t>
-  </si>
-  <si>
-    <t>12,100(万元人民币)</t>
-  </si>
-  <si>
-    <t>2009-05-04 至 --</t>
-  </si>
-  <si>
-    <t>北京市海淀区中关村大街28-1号9层903室</t>
-  </si>
-  <si>
-    <t>计算机系统的设计、集成、安装、调试和管理；计算机、计算机辅助设备、计算机零部件及消耗材料、计算机软件的销售和批发；系统软件服务、数据库软件服务、网络管理软件服务、工具软件服务、数据库管理软件服务、通用软件服务；行业应用软件服务、嵌入式软件服务；数据录入、处理和加工服务；技术开发、咨询、交流、推广、扩散、转移；其他法律、行政法规禁止范围之外的经营项目。（依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动。）</t>
-  </si>
-  <si>
-    <t>沈阳禹创科技有限公司</t>
-  </si>
-  <si>
-    <t>91210105569410397H</t>
-  </si>
-  <si>
-    <t>210105000052016</t>
-  </si>
-  <si>
-    <t>569410397</t>
-  </si>
-  <si>
-    <t>2011-03-04</t>
-  </si>
-  <si>
-    <t>10(万人民币)</t>
-  </si>
-  <si>
-    <t>沈阳市皇姑区市场监督管理局</t>
-  </si>
-  <si>
-    <t>沈阳市</t>
-  </si>
-  <si>
-    <t>2011-03-04 至 2018-06-03</t>
-  </si>
-  <si>
-    <t>沈阳市皇姑区柳条湖街7-1号（3-6-1）</t>
-  </si>
-  <si>
-    <t>许可项目：无；一般项目：计算机软硬件、电子产品的技术开发、技术转让、技术服务，企业管理咨询，设计、制作、代理、发布国内外各类广告，商务信息咨询。（法律法规禁止及应经审批而未获批准的项目除外）（依法须经批准的项目，经相关部门批准后方可开展经营活动。）</t>
-  </si>
-  <si>
     <t>先锋支付有限公司</t>
   </si>
   <si>
-    <t>91210200661136466T</t>
-  </si>
-  <si>
-    <t>661136466</t>
-  </si>
-  <si>
-    <t>有限责任公司（非自然人投资或控股的法人独资）</t>
-  </si>
-  <si>
-    <t>2007-07-12</t>
-  </si>
-  <si>
-    <t>大连市工商行政管理局</t>
-  </si>
-  <si>
-    <t>大连市</t>
-  </si>
-  <si>
-    <t>2007-07-12 至 --</t>
-  </si>
-  <si>
-    <t>辽宁省大连市中山区中山路136号（希望大厦25层04-05单元）</t>
-  </si>
-  <si>
-    <t>企业管理咨询；会议服务；经济信息咨询；计算机软件开发及销售；预付卡发行与受理（北京市、辽宁省）、互联网支付（全国）***（依法须经批准的项目，经相关部门批准后方可开展经营活动。）</t>
-  </si>
-  <si>
     <t>钉子支付信息技术有限公司</t>
   </si>
   <si>
@@ -937,6 +1027,9 @@
     <t>10,080(万人民币)</t>
   </si>
   <si>
+    <t>2015年2月28日 至 2065年2月27日</t>
+  </si>
+  <si>
     <t>长沙市工商行政管理局高新技术产业开发分局</t>
   </si>
   <si>
@@ -946,209 +1039,38 @@
     <t>2015-02-28 至 2019-03-03</t>
   </si>
   <si>
+    <t>工业软件:信息安全</t>
+  </si>
+  <si>
+    <t>软件:指挥调度暨军民结合技术装备</t>
+  </si>
+  <si>
+    <t>工程和技术研究和试验发展:通信系统设备制造</t>
+  </si>
+  <si>
     <t>长沙高新开发区玉兰路2号湘邮科技园研发大楼一楼101号</t>
   </si>
   <si>
     <t>信息系统集成服务；计算机技术开发、技术服务；网络技术的研发；通信技术研发；通信工程设计服务；安全技术防范系统设计、施工、维修；高新技术创业服务；电子产品研发；自营和代理各类商品及技术的进出口，但国家限定公司经营或禁止进出口的商品和技术除外；计算机、软件及辅助设备、电子产品的销售；通信设备、金属装饰材料的零售；建材、装饰材料、五金产品、化工产品、金属及金属矿的批发。（依法须经批准的项目，经相关部门批准后方可开展经营活动）</t>
-  </si>
-  <si>
-    <t>东方电子支付有限公司</t>
-  </si>
-  <si>
-    <t>913100006746129780</t>
-  </si>
-  <si>
-    <t>310109000478536</t>
-  </si>
-  <si>
-    <t>674612978</t>
-  </si>
-  <si>
-    <t>2008-03-07</t>
-  </si>
-  <si>
-    <t>12,130(万人民币)</t>
-  </si>
-  <si>
-    <t>2008-03-07 至 2028-03-06</t>
-  </si>
-  <si>
-    <t>中国（上海）自由贸易试验区郭守敬路498号1幢201/13室</t>
-  </si>
-  <si>
-    <t>互联网支付（详见许可证，凭许可证件经营），海关税费电子支付服务，电子数据处理服务，计算机软件的设计及相关领域内的技术开发、技术咨询、技术服务、技术转让，系统集成，通信设备及配件、电子计算机软硬件及配件的销售，图文设计、制作，广告的设计、制作、代理，利用自有媒体发布，保险兼业代理（凭许可证经营）。【依法须经批准的项目，经相关部门批准后方可开展经营活动】</t>
-  </si>
-  <si>
-    <t>银盛支付服务股份有限公司</t>
-  </si>
-  <si>
-    <t>91440300691195387N</t>
-  </si>
-  <si>
-    <t>440301104151637</t>
-  </si>
-  <si>
-    <t>691195387</t>
-  </si>
-  <si>
-    <t>非上市股份有限公司</t>
-  </si>
-  <si>
-    <t>2009-07-15</t>
-  </si>
-  <si>
-    <t>14,000(万元)</t>
-  </si>
-  <si>
-    <t>2009-07-15 至 --</t>
-  </si>
-  <si>
-    <t>深圳市龙华新区民治街道新区大道997号远景家园五楼501</t>
-  </si>
-  <si>
-    <t>一般经营项目：电子支付系统、智能卡、电子产品的技术开发（不含限制项目）；票务代理(包含机票、火车票及其他票务，不含限制项目)；商务咨询、市场营销策划与推广、经济信息咨询、技术及商品信息咨询；企业管理咨询、投资咨询（不含证券、期货、保险及其它金融业务及其它限制项目）；经营进出口业务（法律、行政法规禁止的项目除外；法律、行政法规限制的项目须取得许可后方可经营）；自动缴费终端业务（水电、煤气、房屋管理费等公共事业费用代缴）和移动POS业务的技术开发及维护服务；从事广告业务（法律、行政法规规定应进行广告经营审批登记的，另行办理审批登记后方可经营）；以服务外包方式从事系统应用管理与维护，银行后台服务、在线数据处理与交易处理业务，数据处理等信息技术和业务流程外包服务（法律、行政法规、国务院决定禁止的项目除外，限制的项目须取得许可后方可经营）；国内贸易（不含专营、专控、专卖商品）；福利产品设计与管理方案策划及相关商务代理服务（不含需人事、劳动及相关主管部门行政审批项目）；互联网支付、移动电话支付、固定电话支付、银行收单（全国，凭Z2002044000013号支付业务许可证经营，有效期至2016年5月2日）。许可经营项目：在线数据处理与交易处理业务[北京、上海、辽宁、广东、重庆、陕西6省、（直辖市）]；呼叫中心业务[北京、上海、江苏、浙江、广东、重庆、四川7省（直辖市）]；信息服务业务（不含固定网电话信息服务和互联网信息服务）（全国）。</t>
-  </si>
-  <si>
-    <t>北京易富成科技有限公司</t>
-  </si>
-  <si>
-    <t>91110106569510427A</t>
-  </si>
-  <si>
-    <t>110106013598221</t>
-  </si>
-  <si>
-    <t>569510427</t>
-  </si>
-  <si>
-    <t>2011-02-18</t>
-  </si>
-  <si>
-    <t>10,100(万元人民币)</t>
-  </si>
-  <si>
-    <t>丰台分局</t>
-  </si>
-  <si>
-    <t>2011-02-18 至 2018-11-24</t>
-  </si>
-  <si>
-    <t>北京市丰台区文体路58号A座038号</t>
-  </si>
-  <si>
-    <t>技术开发、技术服务、技术咨询；机械设备租赁；软件开发；销售计算机软件及辅助设备、五金交电（不从事实体店铺经营）、机械设备、工艺品、针纺织品、陶瓷制品、钢材、石材、建筑材料（不从事实体店铺经营）、木材、金属材料、空调制冷设备、仪器仪表、电子产品、家用电器、办公家具、酒店用品、日用品、机电设备。（企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）</t>
-  </si>
-  <si>
-    <t>广东橙子支付网络科技有限公司</t>
-  </si>
-  <si>
-    <t>914403003266611911</t>
-  </si>
-  <si>
-    <t>440306112338905</t>
-  </si>
-  <si>
-    <t>326661191</t>
-  </si>
-  <si>
-    <t>2015-03-12</t>
-  </si>
-  <si>
-    <t>2015-03-12 至 2079-06-05</t>
-  </si>
-  <si>
-    <t>深圳市罗湖区南湖街道文锦南路商检大厦2603</t>
-  </si>
-  <si>
-    <t>一般经营项目：电子支付系统设备、电子设备、智能卡的技术开发与销售；电子产品、计算机软件的技术开发与技术咨询；电子产品的销售；经营电子商务（涉及前置行政许可的，须取得前置性行政许可文件后方可经营）；网络技术开发（不含互联网上网服务）；市场营销策划；票务代理；国内贸易。（法律、行政法规、国务院决定禁止的项目除外，限制的项目须取得许可后方可经营）许可经营项目：</t>
-  </si>
-  <si>
-    <t>中联信（福建）支付服务有限公司</t>
-  </si>
-  <si>
-    <t>91350200696615328R</t>
-  </si>
-  <si>
-    <t>350581100057614</t>
-  </si>
-  <si>
-    <t>696615328</t>
-  </si>
-  <si>
-    <t>2009-11-06</t>
-  </si>
-  <si>
-    <t>厦门市市场监督管理局</t>
-  </si>
-  <si>
-    <t>厦门市</t>
-  </si>
-  <si>
-    <t>2009-11-06 至 2017-09-06</t>
-  </si>
-  <si>
-    <t>厦门火炬高新区软件园华讯楼A区3F-B</t>
-  </si>
-  <si>
-    <t>为企业、个人的支付、转账、结算等业务提供技术平台、软件开发服务；计算机系统及信息工程的设计、集成、安装、调试和管理；为企业建立营销网络提供技术服务、信息咨询、营销策划；动漫软件研发、计算机软件服务；网络营销、网站维护、数据处理及相关技业务处理服务；动漫设计、广告设计、制作、代理；自有设备租赁；计算机、软件及辅助设备、电子产品、磁条卡、芯片卡、IC卡销售；金融自助设备运营管理维修服务及技术咨询服务；项目投资、资产管理、财务咨询、非融资性担保。</t>
-  </si>
-  <si>
-    <t>金运通网络支付股份有限公司</t>
-  </si>
-  <si>
-    <t>91371300061960814K</t>
-  </si>
-  <si>
-    <t>371300200046491</t>
-  </si>
-  <si>
-    <t>061960814</t>
-  </si>
-  <si>
-    <t>2013-01-17</t>
-  </si>
-  <si>
-    <t>10,600(万人民币)</t>
-  </si>
-  <si>
-    <t>临沂市工商行政管理局</t>
-  </si>
-  <si>
-    <t>临沂市</t>
-  </si>
-  <si>
-    <t>2013-01-17 至 2019-08-26</t>
-  </si>
-  <si>
-    <t>临沂市临沂经济技术开发区华夏路110号</t>
-  </si>
-  <si>
-    <t>电子网络支付（取得许可证后方可经营）；计算机技术服务；计算机软、硬件的设计、技术开发、销售；广告设计制作发布(以上经营项目需许可经营的须凭许可证经营）。(依法须经批准的项目，经相关部门批准后方可开展经营活动)。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1164,21 +1086,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1466,20 +1383,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1511,148 +1428,175 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
       <c r="O1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="T1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1661,101 +1605,119 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>61</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1767,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
@@ -1776,42 +1738,51 @@
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>5</v>
+        <v>82</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" t="s">
+        <v>89</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="T6" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -1820,48 +1791,57 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="P7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" t="s">
+        <v>102</v>
       </c>
       <c r="S7" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -1873,113 +1853,131 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
+        <v>109</v>
+      </c>
+      <c r="P8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" t="s">
+        <v>117</v>
       </c>
       <c r="S8" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>125</v>
+      </c>
+      <c r="P9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R9" t="s">
+        <v>132</v>
       </c>
       <c r="S9" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="T9" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
@@ -1988,42 +1986,51 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>140</v>
+      </c>
+      <c r="P10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>145</v>
+      </c>
+      <c r="R10" t="s">
+        <v>132</v>
       </c>
       <c r="S10" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="T10" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -2032,51 +2039,60 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="O11" t="s">
-        <v>5</v>
+        <v>152</v>
+      </c>
+      <c r="P11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>156</v>
+      </c>
+      <c r="R11" t="s">
+        <v>157</v>
       </c>
       <c r="S11" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="T11" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -2085,416 +2101,488 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="O12" t="s">
-        <v>5</v>
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>168</v>
+      </c>
+      <c r="R12" t="s">
+        <v>169</v>
       </c>
       <c r="S12" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="T12" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="K13" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="M13" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>177</v>
+      </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>183</v>
+      </c>
+      <c r="R13" t="s">
+        <v>184</v>
       </c>
       <c r="S13" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="T13" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="M14" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="O14" t="s">
-        <v>143</v>
+        <v>192</v>
+      </c>
+      <c r="P14" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>198</v>
+      </c>
+      <c r="R14" t="s">
+        <v>199</v>
       </c>
       <c r="S14" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="T14" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="I15" t="s">
         <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="M15" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="O15" t="s">
-        <v>154</v>
+        <v>207</v>
+      </c>
+      <c r="P15" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>214</v>
+      </c>
+      <c r="R15" t="s">
+        <v>215</v>
       </c>
       <c r="S15" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="T15" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="K16" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="M16" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="O16" t="s">
-        <v>166</v>
+        <v>223</v>
+      </c>
+      <c r="P16" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>230</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
       </c>
       <c r="S16" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="T16" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="M17" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="O17" t="s">
-        <v>178</v>
+        <v>238</v>
+      </c>
+      <c r="P17" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>245</v>
+      </c>
+      <c r="R17" t="s">
+        <v>246</v>
       </c>
       <c r="S17" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="T17" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="K18" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="M18" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="O18" t="s">
-        <v>166</v>
+        <v>253</v>
+      </c>
+      <c r="P18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>131</v>
+      </c>
+      <c r="R18" t="s">
+        <v>259</v>
       </c>
       <c r="S18" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="T18" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="L19" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N19" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>266</v>
+      </c>
+      <c r="P19" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>272</v>
+      </c>
+      <c r="R19" t="s">
+        <v>273</v>
       </c>
       <c r="S19" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="T19" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -2506,519 +2594,488 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="K20" t="s">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="L20" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="N20" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="O20" t="s">
-        <v>5</v>
+        <v>280</v>
+      </c>
+      <c r="P20" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R20" t="s">
+        <v>288</v>
       </c>
       <c r="S20" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c r="T20" t="s">
-        <v>217</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N21" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>294</v>
+      </c>
+      <c r="P21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>298</v>
+      </c>
+      <c r="R21" t="s">
+        <v>299</v>
       </c>
       <c r="S21" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="T21" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>231</v>
+        <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N22" t="s">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="O22" t="s">
-        <v>104</v>
+        <v>8</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" t="s">
+        <v>8</v>
       </c>
       <c r="S22" t="s">
-        <v>233</v>
+        <v>8</v>
       </c>
       <c r="T22" t="s">
-        <v>234</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" t="s">
-        <v>239</v>
-      </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" t="s">
-        <v>240</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" t="s">
-        <v>241</v>
-      </c>
-      <c r="O23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" t="s">
-        <v>242</v>
-      </c>
-      <c r="T23" t="s">
-        <v>243</v>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" t="s">
-        <v>247</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" t="s">
-        <v>249</v>
-      </c>
-      <c r="K24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" t="s">
-        <v>250</v>
-      </c>
-      <c r="O24" t="s">
-        <v>93</v>
-      </c>
-      <c r="S24" t="s">
-        <v>251</v>
-      </c>
-      <c r="T24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="K25" t="s">
+        <v>310</v>
+      </c>
+      <c r="L25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" t="s">
+        <v>310</v>
+      </c>
+      <c r="O25" t="s">
+        <v>308</v>
+      </c>
+      <c r="P25" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>312</v>
+      </c>
+      <c r="R25" t="s">
+        <v>313</v>
+      </c>
+      <c r="S25" t="s">
+        <v>314</v>
+      </c>
+      <c r="T25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" t="s">
         <v>4</v>
       </c>
-      <c r="L25" t="s">
-        <v>258</v>
-      </c>
-      <c r="M25" t="s">
-        <v>259</v>
-      </c>
-      <c r="N25" t="s">
-        <v>260</v>
-      </c>
-      <c r="O25" t="s">
-        <v>166</v>
-      </c>
-      <c r="S25" t="s">
-        <v>261</v>
-      </c>
-      <c r="T25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>263</v>
-      </c>
-      <c r="B26" t="s">
-        <v>264</v>
-      </c>
-      <c r="C26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D26" t="s">
-        <v>266</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="L26" t="s">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="N26" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="O26" t="s">
-        <v>104</v>
+        <v>320</v>
+      </c>
+      <c r="P26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>325</v>
+      </c>
+      <c r="R26" t="s">
+        <v>326</v>
       </c>
       <c r="S26" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="T26" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>272</v>
+        <v>329</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>273</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>275</v>
+        <v>8</v>
       </c>
       <c r="I27" t="s">
         <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N27" t="s">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="O27" t="s">
-        <v>104</v>
+        <v>8</v>
+      </c>
+      <c r="P27" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" t="s">
+        <v>8</v>
       </c>
       <c r="S27" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="T27" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>280</v>
-      </c>
-      <c r="B28" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" t="s">
-        <v>282</v>
-      </c>
-      <c r="D28" t="s">
-        <v>283</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>284</v>
-      </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" t="s">
-        <v>285</v>
-      </c>
-      <c r="K28" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" t="s">
-        <v>286</v>
-      </c>
-      <c r="M28" t="s">
-        <v>287</v>
-      </c>
-      <c r="N28" t="s">
-        <v>288</v>
-      </c>
-      <c r="O28" t="s">
-        <v>154</v>
-      </c>
-      <c r="S28" t="s">
-        <v>289</v>
-      </c>
-      <c r="T28" t="s">
-        <v>290</v>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>291</v>
-      </c>
-      <c r="B29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>294</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" t="s">
-        <v>295</v>
-      </c>
-      <c r="I29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" t="s">
-        <v>296</v>
-      </c>
-      <c r="M29" t="s">
-        <v>297</v>
-      </c>
-      <c r="N29" t="s">
-        <v>298</v>
-      </c>
-      <c r="O29" t="s">
-        <v>294</v>
-      </c>
-      <c r="S29" t="s">
-        <v>299</v>
-      </c>
-      <c r="T29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="D30" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -3030,357 +3087,46 @@
         <v>6</v>
       </c>
       <c r="H30" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="I30" t="s">
         <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="K30" t="s">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="L30" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="M30" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="N30" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O30" t="s">
-        <v>5</v>
+        <v>335</v>
+      </c>
+      <c r="P30" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>342</v>
+      </c>
+      <c r="R30" t="s">
+        <v>343</v>
       </c>
       <c r="S30" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="T30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31" t="s">
-        <v>313</v>
-      </c>
-      <c r="C31" t="s">
-        <v>314</v>
-      </c>
-      <c r="D31" t="s">
-        <v>315</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" t="s">
-        <v>316</v>
-      </c>
-      <c r="I31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" t="s">
-        <v>317</v>
-      </c>
-      <c r="K31" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" t="s">
-        <v>146</v>
-      </c>
-      <c r="M31" t="s">
-        <v>135</v>
-      </c>
-      <c r="N31" t="s">
-        <v>318</v>
-      </c>
-      <c r="O31" t="s">
-        <v>5</v>
-      </c>
-      <c r="S31" t="s">
-        <v>319</v>
-      </c>
-      <c r="T31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>321</v>
-      </c>
-      <c r="B32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C32" t="s">
-        <v>323</v>
-      </c>
-      <c r="D32" t="s">
-        <v>324</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>325</v>
-      </c>
-      <c r="G32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" t="s">
-        <v>326</v>
-      </c>
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" t="s">
-        <v>327</v>
-      </c>
-      <c r="K32" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" t="s">
-        <v>328</v>
-      </c>
-      <c r="O32" t="s">
-        <v>325</v>
-      </c>
-      <c r="S32" t="s">
-        <v>329</v>
-      </c>
-      <c r="T32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>331</v>
-      </c>
-      <c r="B33" t="s">
-        <v>332</v>
-      </c>
-      <c r="C33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D33" t="s">
-        <v>334</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" t="s">
-        <v>335</v>
-      </c>
-      <c r="I33" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" t="s">
-        <v>336</v>
-      </c>
-      <c r="K33" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" t="s">
-        <v>337</v>
-      </c>
-      <c r="M33" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" t="s">
-        <v>338</v>
-      </c>
-      <c r="O33" t="s">
-        <v>166</v>
-      </c>
-      <c r="S33" t="s">
-        <v>339</v>
-      </c>
-      <c r="T33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>341</v>
-      </c>
-      <c r="B34" t="s">
-        <v>342</v>
-      </c>
-      <c r="C34" t="s">
-        <v>343</v>
-      </c>
-      <c r="D34" t="s">
-        <v>344</v>
-      </c>
-      <c r="E34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" t="s">
         <v>345</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" t="s">
-        <v>240</v>
-      </c>
-      <c r="K34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" t="s">
-        <v>45</v>
-      </c>
-      <c r="N34" t="s">
-        <v>346</v>
-      </c>
-      <c r="O34" t="s">
-        <v>5</v>
-      </c>
-      <c r="S34" t="s">
-        <v>347</v>
-      </c>
-      <c r="T34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>349</v>
-      </c>
-      <c r="B35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C35" t="s">
-        <v>351</v>
-      </c>
-      <c r="D35" t="s">
-        <v>352</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" t="s">
-        <v>353</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" t="s">
-        <v>354</v>
-      </c>
-      <c r="M35" t="s">
-        <v>355</v>
-      </c>
-      <c r="N35" t="s">
-        <v>356</v>
-      </c>
-      <c r="O35" t="s">
-        <v>104</v>
-      </c>
-      <c r="S35" t="s">
-        <v>357</v>
-      </c>
-      <c r="T35" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>359</v>
-      </c>
-      <c r="B36" t="s">
-        <v>360</v>
-      </c>
-      <c r="C36" t="s">
-        <v>361</v>
-      </c>
-      <c r="D36" t="s">
-        <v>362</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" t="s">
-        <v>363</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" t="s">
-        <v>364</v>
-      </c>
-      <c r="K36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" t="s">
-        <v>365</v>
-      </c>
-      <c r="M36" t="s">
-        <v>366</v>
-      </c>
-      <c r="N36" t="s">
-        <v>367</v>
-      </c>
-      <c r="O36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S36" t="s">
-        <v>368</v>
-      </c>
-      <c r="T36" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>